--- a/ZRK SYS 2024_SEP.xlsx
+++ b/ZRK SYS 2024_SEP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{DD530F1B-07D1-496F-A034-A923EF4721BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA9D1B9-BF0F-4A94-8AC9-26871FE4F58E}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{DD530F1B-07D1-496F-A034-A923EF4721BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3204F0-F2A5-43A2-8001-7A3660804E2F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{414B6076-B622-41FD-89B9-2F3F9D3579D2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="BANCOS">"['file:///G:/Mi%20unidad/03%20VIC/ADMON%20CHNT/V2%20Chente%202022.xlsm'#$CATEGORIAS.$J$8:.$J$20]"</definedName>
     <definedName name="CATEGORIA">"['file:///G:/Mi%20unidad/03%20VIC/ADMON%20CHNT/V2%20Chente%202022.xlsm'#$CATEGORIAS.$B$6:.$J$6]"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="781">
   <si>
     <t>Comercializadora Gaztambide, S.A. de C.V.</t>
   </si>
@@ -2491,6 +2491,9 @@
   </si>
   <si>
     <t>Server ZARKIN-088</t>
+  </si>
+  <si>
+    <t>Se aplico SAP 10 para poder usar con REMINA Linux.</t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3436,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="24"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4346,24 +4349,6 @@
     </xf>
     <xf numFmtId="164" fontId="39" fillId="9" borderId="9" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="27" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="24" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -5448,8 +5433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9BC52DF-90E0-42E1-B0F8-60E562A2BC0B}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B6:H23" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B6:H23" xr:uid="{C591E83B-678A-4F33-9BEA-48F0587FF32D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9BC52DF-90E0-42E1-B0F8-60E562A2BC0B}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="B6:H25" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B6:H25" xr:uid="{C591E83B-678A-4F33-9BEA-48F0587FF32D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H22">
     <sortCondition ref="C7:C22"/>
     <sortCondition ref="D7:D22"/>
@@ -5816,11 +5801,11 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FF0D0D0D"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15"/>
@@ -5868,8 +5853,8 @@
         <v>2</v>
       </c>
       <c r="E4" s="308">
-        <f>MAX(B6:B23)</f>
-        <v>45545</v>
+        <f>MAX(B6:B25)</f>
+        <v>45666</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -5881,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="308">
-        <f>MIN(B6:B23)</f>
+        <f>MIN(B6:B25)</f>
         <v>43613</v>
       </c>
       <c r="F5" s="4"/>
@@ -6292,26 +6277,70 @@
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="335">
-        <v>44329</v>
-      </c>
-      <c r="C23" s="336" t="s">
+      <c r="B23" s="310">
+        <v>45666</v>
+      </c>
+      <c r="C23" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="337" t="s">
+      <c r="D23" s="312" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="316" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="338" t="s">
+      <c r="F23" s="313" t="s">
         <v>215</v>
       </c>
-      <c r="G23" s="339" t="s">
+      <c r="G23" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="340" t="s">
-        <v>216</v>
+      <c r="H23" s="315" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="310">
+        <v>44661</v>
+      </c>
+      <c r="C24" s="311" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="312" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="316" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="313" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="314" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="315"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="310">
+        <v>45664</v>
+      </c>
+      <c r="C25" s="311" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="312" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="316" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="313" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="314" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="315" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6346,8 +6375,8 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55:H55"/>
+      <pane ySplit="6" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15"/>

--- a/ZRK SYS 2024_SEP.xlsx
+++ b/ZRK SYS 2024_SEP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{DD530F1B-07D1-496F-A034-A923EF4721BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3204F0-F2A5-43A2-8001-7A3660804E2F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{DD530F1B-07D1-496F-A034-A923EF4721BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F394259-2967-442F-A7BA-2BD5D0AA9C95}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{414B6076-B622-41FD-89B9-2F3F9D3579D2}"/>
   </bookViews>
@@ -5804,8 +5804,8 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15"/>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="E4" s="308">
         <f>MAX(B6:B25)</f>
-        <v>45666</v>
+        <v>45755</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -6045,7 +6045,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="9"/>
       <c r="B13" s="310">
-        <v>45509</v>
+        <v>45755</v>
       </c>
       <c r="C13" s="311" t="s">
         <v>11</v>
